--- a/05_functional_enrichment/funciones_120_72_kegg_ups.xlsx
+++ b/05_functional_enrichment/funciones_120_72_kegg_ups.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="712" uniqueCount="451">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="711" uniqueCount="447">
   <si>
     <t>ID</t>
   </si>
@@ -107,16 +107,19 @@
     <t>04145</t>
   </si>
   <si>
+    <t>04630</t>
+  </si>
+  <si>
     <t>04614</t>
   </si>
   <si>
-    <t>04630</t>
+    <t>04540</t>
   </si>
   <si>
     <t>00760</t>
   </si>
   <si>
-    <t>04540</t>
+    <t>00120</t>
   </si>
   <si>
     <t>00860</t>
@@ -161,9 +164,6 @@
     <t>00240</t>
   </si>
   <si>
-    <t>00120</t>
-  </si>
-  <si>
     <t>00620</t>
   </si>
   <si>
@@ -341,9 +341,6 @@
     <t>04270</t>
   </si>
   <si>
-    <t>00561</t>
-  </si>
-  <si>
     <t>04020</t>
   </si>
   <si>
@@ -368,12 +365,12 @@
     <t>04914</t>
   </si>
   <si>
+    <t>03040</t>
+  </si>
+  <si>
     <t>04142</t>
   </si>
   <si>
-    <t>03040</t>
-  </si>
-  <si>
     <t>04370</t>
   </si>
   <si>
@@ -458,10 +455,13 @@
     <t>Phagosome</t>
   </si>
   <si>
+    <t>Gap junction</t>
+  </si>
+  <si>
     <t>Nicotinate and nicotinamide metabolism</t>
   </si>
   <si>
-    <t>Gap junction</t>
+    <t>Primary bile acid biosynthesis</t>
   </si>
   <si>
     <t>Porphyrin metabolism</t>
@@ -506,9 +506,6 @@
     <t>Pyrimidine metabolism</t>
   </si>
   <si>
-    <t>Primary bile acid biosynthesis</t>
-  </si>
-  <si>
     <t>Pyruvate metabolism</t>
   </si>
   <si>
@@ -668,9 +665,6 @@
     <t>Vascular smooth muscle contraction</t>
   </si>
   <si>
-    <t>Glycerolipid metabolism</t>
-  </si>
-  <si>
     <t>Calcium signaling pathway</t>
   </si>
   <si>
@@ -695,12 +689,12 @@
     <t>Progesterone-mediated oocyte maturation</t>
   </si>
   <si>
+    <t>Spliceosome</t>
+  </si>
+  <si>
     <t>Lysosome</t>
   </si>
   <si>
-    <t>Spliceosome</t>
-  </si>
-  <si>
     <t>VEGF signaling pathway</t>
   </si>
   <si>
@@ -776,244 +770,241 @@
     <t>18/316</t>
   </si>
   <si>
-    <t>36/4578</t>
-  </si>
-  <si>
-    <t>14/4578</t>
-  </si>
-  <si>
-    <t>62/4578</t>
-  </si>
-  <si>
-    <t>29/4578</t>
-  </si>
-  <si>
-    <t>60/4578</t>
-  </si>
-  <si>
-    <t>23/4578</t>
-  </si>
-  <si>
-    <t>61/4578</t>
-  </si>
-  <si>
-    <t>31/4578</t>
-  </si>
-  <si>
-    <t>24/4578</t>
-  </si>
-  <si>
-    <t>11/4578</t>
-  </si>
-  <si>
-    <t>32/4578</t>
-  </si>
-  <si>
-    <t>27/4578</t>
-  </si>
-  <si>
-    <t>20/4578</t>
-  </si>
-  <si>
-    <t>167/4578</t>
-  </si>
-  <si>
-    <t>33/4578</t>
-  </si>
-  <si>
-    <t>17/4578</t>
-  </si>
-  <si>
-    <t>34/4578</t>
-  </si>
-  <si>
-    <t>73/4578</t>
-  </si>
-  <si>
-    <t>65/4578</t>
-  </si>
-  <si>
-    <t>144/4578</t>
-  </si>
-  <si>
-    <t>12/4578</t>
-  </si>
-  <si>
-    <t>102/4578</t>
-  </si>
-  <si>
-    <t>21/4578</t>
-  </si>
-  <si>
-    <t>116/4578</t>
-  </si>
-  <si>
-    <t>43/4578</t>
-  </si>
-  <si>
-    <t>15/4578</t>
-  </si>
-  <si>
-    <t>16/4578</t>
-  </si>
-  <si>
-    <t>28/4578</t>
-  </si>
-  <si>
-    <t>40/4578</t>
-  </si>
-  <si>
-    <t>10/4578</t>
-  </si>
-  <si>
-    <t>30/4578</t>
-  </si>
-  <si>
-    <t>42/4578</t>
-  </si>
-  <si>
-    <t>103/4578</t>
-  </si>
-  <si>
-    <t>96/4578</t>
-  </si>
-  <si>
-    <t>13/4578</t>
-  </si>
-  <si>
-    <t>37/4578</t>
-  </si>
-  <si>
-    <t>88/4578</t>
-  </si>
-  <si>
-    <t>77/4578</t>
-  </si>
-  <si>
-    <t>18/4578</t>
-  </si>
-  <si>
-    <t>44/4578</t>
-  </si>
-  <si>
-    <t>154/4578</t>
-  </si>
-  <si>
-    <t>19/4578</t>
-  </si>
-  <si>
-    <t>283/4578</t>
-  </si>
-  <si>
-    <t>25/4578</t>
-  </si>
-  <si>
-    <t>26/4578</t>
-  </si>
-  <si>
-    <t>212/4578</t>
-  </si>
-  <si>
-    <t>46/4578</t>
-  </si>
-  <si>
-    <t>94/4578</t>
-  </si>
-  <si>
-    <t>81/4578</t>
-  </si>
-  <si>
-    <t>49/4578</t>
-  </si>
-  <si>
-    <t>51/4578</t>
-  </si>
-  <si>
-    <t>148/4578</t>
-  </si>
-  <si>
-    <t>86/4578</t>
-  </si>
-  <si>
-    <t>53/4578</t>
-  </si>
-  <si>
-    <t>135/4578</t>
-  </si>
-  <si>
-    <t>89/4578</t>
-  </si>
-  <si>
-    <t>174/4578</t>
-  </si>
-  <si>
-    <t>58/4578</t>
-  </si>
-  <si>
-    <t>127/4578</t>
-  </si>
-  <si>
-    <t>22/4578</t>
-  </si>
-  <si>
-    <t>123/4578</t>
-  </si>
-  <si>
-    <t>125/4578</t>
-  </si>
-  <si>
-    <t>90/4578</t>
-  </si>
-  <si>
-    <t>92/4578</t>
-  </si>
-  <si>
-    <t>252/4578</t>
-  </si>
-  <si>
-    <t>118/4578</t>
-  </si>
-  <si>
-    <t>41/4578</t>
-  </si>
-  <si>
-    <t>224/4578</t>
-  </si>
-  <si>
-    <t>364/4578</t>
-  </si>
-  <si>
-    <t>112/4578</t>
-  </si>
-  <si>
-    <t>133/4578</t>
-  </si>
-  <si>
-    <t>95/4578</t>
-  </si>
-  <si>
-    <t>47/4578</t>
-  </si>
-  <si>
-    <t>100/4578</t>
-  </si>
-  <si>
-    <t>84/4578</t>
-  </si>
-  <si>
-    <t>141/4578</t>
-  </si>
-  <si>
-    <t>166/4578</t>
-  </si>
-  <si>
-    <t>235/4578</t>
-  </si>
-  <si>
-    <t>72/4578</t>
-  </si>
-  <si>
-    <t>129/4578</t>
+    <t>36/4577</t>
+  </si>
+  <si>
+    <t>14/4577</t>
+  </si>
+  <si>
+    <t>62/4577</t>
+  </si>
+  <si>
+    <t>29/4577</t>
+  </si>
+  <si>
+    <t>60/4577</t>
+  </si>
+  <si>
+    <t>23/4577</t>
+  </si>
+  <si>
+    <t>61/4577</t>
+  </si>
+  <si>
+    <t>31/4577</t>
+  </si>
+  <si>
+    <t>24/4577</t>
+  </si>
+  <si>
+    <t>11/4577</t>
+  </si>
+  <si>
+    <t>32/4577</t>
+  </si>
+  <si>
+    <t>27/4577</t>
+  </si>
+  <si>
+    <t>20/4577</t>
+  </si>
+  <si>
+    <t>167/4577</t>
+  </si>
+  <si>
+    <t>33/4577</t>
+  </si>
+  <si>
+    <t>17/4577</t>
+  </si>
+  <si>
+    <t>34/4577</t>
+  </si>
+  <si>
+    <t>73/4577</t>
+  </si>
+  <si>
+    <t>65/4577</t>
+  </si>
+  <si>
+    <t>142/4577</t>
+  </si>
+  <si>
+    <t>101/4577</t>
+  </si>
+  <si>
+    <t>12/4577</t>
+  </si>
+  <si>
+    <t>115/4577</t>
+  </si>
+  <si>
+    <t>21/4577</t>
+  </si>
+  <si>
+    <t>13/4577</t>
+  </si>
+  <si>
+    <t>43/4577</t>
+  </si>
+  <si>
+    <t>15/4577</t>
+  </si>
+  <si>
+    <t>16/4577</t>
+  </si>
+  <si>
+    <t>28/4577</t>
+  </si>
+  <si>
+    <t>40/4577</t>
+  </si>
+  <si>
+    <t>10/4577</t>
+  </si>
+  <si>
+    <t>30/4577</t>
+  </si>
+  <si>
+    <t>42/4577</t>
+  </si>
+  <si>
+    <t>102/4577</t>
+  </si>
+  <si>
+    <t>96/4577</t>
+  </si>
+  <si>
+    <t>37/4577</t>
+  </si>
+  <si>
+    <t>88/4577</t>
+  </si>
+  <si>
+    <t>77/4577</t>
+  </si>
+  <si>
+    <t>18/4577</t>
+  </si>
+  <si>
+    <t>44/4577</t>
+  </si>
+  <si>
+    <t>154/4577</t>
+  </si>
+  <si>
+    <t>19/4577</t>
+  </si>
+  <si>
+    <t>283/4577</t>
+  </si>
+  <si>
+    <t>25/4577</t>
+  </si>
+  <si>
+    <t>26/4577</t>
+  </si>
+  <si>
+    <t>212/4577</t>
+  </si>
+  <si>
+    <t>46/4577</t>
+  </si>
+  <si>
+    <t>94/4577</t>
+  </si>
+  <si>
+    <t>81/4577</t>
+  </si>
+  <si>
+    <t>49/4577</t>
+  </si>
+  <si>
+    <t>51/4577</t>
+  </si>
+  <si>
+    <t>148/4577</t>
+  </si>
+  <si>
+    <t>86/4577</t>
+  </si>
+  <si>
+    <t>53/4577</t>
+  </si>
+  <si>
+    <t>135/4577</t>
+  </si>
+  <si>
+    <t>89/4577</t>
+  </si>
+  <si>
+    <t>174/4577</t>
+  </si>
+  <si>
+    <t>58/4577</t>
+  </si>
+  <si>
+    <t>127/4577</t>
+  </si>
+  <si>
+    <t>22/4577</t>
+  </si>
+  <si>
+    <t>123/4577</t>
+  </si>
+  <si>
+    <t>124/4577</t>
+  </si>
+  <si>
+    <t>90/4577</t>
+  </si>
+  <si>
+    <t>92/4577</t>
+  </si>
+  <si>
+    <t>252/4577</t>
+  </si>
+  <si>
+    <t>118/4577</t>
+  </si>
+  <si>
+    <t>224/4577</t>
+  </si>
+  <si>
+    <t>364/4577</t>
+  </si>
+  <si>
+    <t>112/4577</t>
+  </si>
+  <si>
+    <t>133/4577</t>
+  </si>
+  <si>
+    <t>95/4577</t>
+  </si>
+  <si>
+    <t>47/4577</t>
+  </si>
+  <si>
+    <t>100/4577</t>
+  </si>
+  <si>
+    <t>84/4577</t>
+  </si>
+  <si>
+    <t>141/4577</t>
+  </si>
+  <si>
+    <t>166/4577</t>
+  </si>
+  <si>
+    <t>235/4577</t>
+  </si>
+  <si>
+    <t>72/4577</t>
+  </si>
+  <si>
+    <t>129/4577</t>
   </si>
   <si>
     <t>gnat2/gngt1/grk1b/arr3b/grk7a/pde6gb/gnat1/grk1a/rcvrna/arr3a/rho</t>
@@ -1034,7 +1025,7 @@
     <t>abat/gad1b/aoc2/gad2/dpys/dpydb/zgc:101569</t>
   </si>
   <si>
-    <t>fabp6/pck1/rxrgb/fabp7a/angptl4/fads2/scdb/lpl/cyp7a1/ubc/acsl5/acsl4a</t>
+    <t>fabp6/pck1/cyp8b1.1/rxrgb/fabp7a/angptl4/fads2/scdb/cyp7a1/ubc/acsl5/acsl4a</t>
   </si>
   <si>
     <t>hpdb/aoc2/tat/hpda/hgd/mao/gstz1/tyr</t>
@@ -1082,16 +1073,19 @@
     <t>tubb4bl/atp6ap1a/rab7a/atp6v0a1b/zgc:65894/c3a.2/tuba2/tuba1c/thbs4b/atpv0e2/tubb1/atp6v0cb/atp6v1e1b/tuba1a/c3a.3/itgav</t>
   </si>
   <si>
+    <t>mycb/socs2/socs3b/spry1/il13ra2/il13ra1/pim1/sos1/cish/mpl/gh1/epor</t>
+  </si>
+  <si>
     <t>agtr2/anpepb.1/ace2</t>
   </si>
   <si>
-    <t>mycb/socs2/socs3b/spry1/il13ra2/il13ra1/pim1/sos1/cish/mpl/gh1/epor</t>
+    <t>gja1b/tubb4bl/zgc:65894/pdgfrb/tuba2/tuba1c/gucy1a1/tubb1/sos1/gucy1b1/tuba1a/adcy1b/gjd2b</t>
   </si>
   <si>
     <t>pnp6/aspdh/nt5e/enpp1</t>
   </si>
   <si>
-    <t>gja1b/tubb4bl/zgc:65894/pdgfrb/tuba2/tuba1c/gucy1a1/tubb1/sos1/gucy1b1/tuba1a/adcy1b/gjd2b</t>
+    <t>ch25h/cyp8b1.1/cyp7a1</t>
   </si>
   <si>
     <t>blvrb/cp/fth1a/ugt2a1/hmbsb</t>
@@ -1136,9 +1130,6 @@
     <t>nme2a/pnp6/rrm2/nme2b.2/cdaa/dpys/nt5e/dpydb/cdab</t>
   </si>
   <si>
-    <t>ch25h/cyp7a1</t>
-  </si>
-  <si>
     <t>pck1/pklr/pdha1b/ldhbb</t>
   </si>
   <si>
@@ -1313,9 +1304,6 @@
     <t>myl6/gucy1a1/gucy1b1/adcy1b/ramp2</t>
   </si>
   <si>
-    <t>lpl</t>
-  </si>
-  <si>
     <t>grin1b/pdgfrb/ppp3cb/chp2/p2rx2/bdkrb1/trpc1/atp2b2/slc25a4/adcy1b</t>
   </si>
   <si>
@@ -1340,10 +1328,10 @@
     <t>ins/adcy1b/igf1</t>
   </si>
   <si>
+    <t>alyref/wbp11/u2af1/hnrnpa1a</t>
+  </si>
+  <si>
     <t>atp6ap1a/ctsbb/atp6v0a1b/atp6v0cb</t>
-  </si>
-  <si>
-    <t>alyref/wbp11/u2af1/hnrnpa1a</t>
   </si>
   <si>
     <t>ppp3cb/chp2</t>
@@ -1453,25 +1441,25 @@
         <v>9</v>
       </c>
       <c r="C2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D2" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="E2" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="F2" t="n">
-        <v>1.7915130844733855E-5</v>
+        <v>1.7951921815357406E-5</v>
       </c>
       <c r="G2" t="n">
-        <v>0.002113985439678595</v>
+        <v>0.0021003748523968167</v>
       </c>
       <c r="H2" t="n">
-        <v>0.0017726550520052447</v>
+        <v>0.001757398661924462</v>
       </c>
       <c r="I2" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="J2" t="n">
         <v>11.0</v>
@@ -1485,25 +1473,25 @@
         <v>10</v>
       </c>
       <c r="C3" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D3" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="E3" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="F3" t="n">
-        <v>1.928101862679807E-4</v>
+        <v>1.9304254795890344E-4</v>
       </c>
       <c r="G3" t="n">
-        <v>0.009388851522769316</v>
+        <v>0.009329288334994629</v>
       </c>
       <c r="H3" t="n">
-        <v>0.007872899581983192</v>
+        <v>0.007805882277593347</v>
       </c>
       <c r="I3" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="J3" t="n">
         <v>6.0</v>
@@ -1517,25 +1505,25 @@
         <v>11</v>
       </c>
       <c r="C4" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D4" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="E4" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="F4" t="n">
-        <v>2.3869961498566055E-4</v>
+        <v>2.3921252141011868E-4</v>
       </c>
       <c r="G4" t="n">
-        <v>0.009388851522769316</v>
+        <v>0.009329288334994629</v>
       </c>
       <c r="H4" t="n">
-        <v>0.007872899581983192</v>
+        <v>0.007805882277593347</v>
       </c>
       <c r="I4" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="J4" t="n">
         <v>13.0</v>
@@ -1548,26 +1536,26 @@
       <c r="B5" t="s">
         <v>12</v>
       </c>
-      <c r="C5" t="e">
-        <v>#N/A</v>
+      <c r="C5" t="s">
+        <v>12</v>
       </c>
       <c r="D5" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="E5" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="F5" t="n">
-        <v>5.611109280075716E-4</v>
+        <v>5.619310092734811E-4</v>
       </c>
       <c r="G5" t="n">
-        <v>0.012833168872620654</v>
+        <v>0.012741134620138393</v>
       </c>
       <c r="H5" t="n">
-        <v>0.010761087190243903</v>
+        <v>0.010660598467592179</v>
       </c>
       <c r="I5" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="J5" t="n">
         <v>8.0</v>
@@ -1581,25 +1569,25 @@
         <v>13</v>
       </c>
       <c r="C6" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D6" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="E6" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="F6" t="n">
-        <v>6.519976532569731E-4</v>
+        <v>6.532677386506219E-4</v>
       </c>
       <c r="G6" t="n">
-        <v>0.012833168872620654</v>
+        <v>0.012741134620138393</v>
       </c>
       <c r="H6" t="n">
-        <v>0.010761087190243903</v>
+        <v>0.010660598467592179</v>
       </c>
       <c r="I6" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="J6" t="n">
         <v>12.0</v>
@@ -1613,25 +1601,25 @@
         <v>14</v>
       </c>
       <c r="C7" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D7" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="E7" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="F7" t="n">
-        <v>6.525340104722365E-4</v>
+        <v>6.53391518981456E-4</v>
       </c>
       <c r="G7" t="n">
-        <v>0.012833168872620654</v>
+        <v>0.012741134620138393</v>
       </c>
       <c r="H7" t="n">
-        <v>0.010761087190243903</v>
+        <v>0.010660598467592179</v>
       </c>
       <c r="I7" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="J7" t="n">
         <v>7.0</v>
@@ -1645,25 +1633,25 @@
         <v>15</v>
       </c>
       <c r="C8" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D8" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="E8" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="F8" t="n">
-        <v>7.624691623943443E-4</v>
+        <v>7.639438772157699E-4</v>
       </c>
       <c r="G8" t="n">
-        <v>0.012853051594647518</v>
+        <v>0.012768776233463583</v>
       </c>
       <c r="H8" t="n">
-        <v>0.010777759588732085</v>
+        <v>0.010683726403167908</v>
       </c>
       <c r="I8" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="J8" t="n">
         <v>12.0</v>
@@ -1677,25 +1665,25 @@
         <v>16</v>
       </c>
       <c r="C9" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D9" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="E9" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="F9" t="n">
-        <v>9.131738501210762E-4</v>
+        <v>9.14483855821767E-4</v>
       </c>
       <c r="G9" t="n">
-        <v>0.013469314289285873</v>
+        <v>0.013374326391393342</v>
       </c>
       <c r="H9" t="n">
-        <v>0.011294518672550153</v>
+        <v>0.011190394551503202</v>
       </c>
       <c r="I9" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="J9" t="n">
         <v>8.0</v>
@@ -1709,25 +1697,25 @@
         <v>17</v>
       </c>
       <c r="C10" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D10" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="E10" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="F10" t="n">
-        <v>0.0047926794677397985</v>
+        <v>0.004797829119408782</v>
       </c>
       <c r="G10" t="n">
-        <v>0.056101799448040564</v>
+        <v>0.055692856334027686</v>
       </c>
       <c r="H10" t="n">
-        <v>0.04704343575482438</v>
+        <v>0.046598611237648004</v>
       </c>
       <c r="I10" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="J10" t="n">
         <v>6.0</v>
@@ -1741,25 +1729,25 @@
         <v>18</v>
       </c>
       <c r="C11" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D11" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="E11" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="F11" t="n">
-        <v>0.004982627654681291</v>
+        <v>0.004986550866284906</v>
       </c>
       <c r="G11" t="n">
-        <v>0.056101799448040564</v>
+        <v>0.055692856334027686</v>
       </c>
       <c r="H11" t="n">
-        <v>0.04704343575482438</v>
+        <v>0.046598611237648004</v>
       </c>
       <c r="I11" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="J11" t="n">
         <v>4.0</v>
@@ -1773,25 +1761,25 @@
         <v>19</v>
       </c>
       <c r="C12" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D12" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="E12" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="F12" t="n">
-        <v>0.0052298287621054766</v>
+        <v>0.005236080510036791</v>
       </c>
       <c r="G12" t="n">
-        <v>0.056101799448040564</v>
+        <v>0.055692856334027686</v>
       </c>
       <c r="H12" t="n">
-        <v>0.04704343575482438</v>
+        <v>0.046598611237648004</v>
       </c>
       <c r="I12" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="J12" t="n">
         <v>7.0</v>
@@ -1805,25 +1793,25 @@
         <v>20</v>
       </c>
       <c r="C13" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D13" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="E13" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="F13" t="n">
-        <v>0.008845999550055529</v>
+        <v>0.008855165074336927</v>
       </c>
       <c r="G13" t="n">
-        <v>0.08698566224221271</v>
+        <v>0.08633785947478503</v>
       </c>
       <c r="H13" t="n">
-        <v>0.07294069804431752</v>
+        <v>0.07223950455380125</v>
       </c>
       <c r="I13" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="J13" t="n">
         <v>6.0</v>
@@ -1837,25 +1825,25 @@
         <v>21</v>
       </c>
       <c r="C14" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D14" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="E14" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="F14" t="n">
-        <v>0.009931938076974766</v>
+        <v>0.009940886755707794</v>
       </c>
       <c r="G14" t="n">
-        <v>0.09015143792946326</v>
+        <v>0.08946798080137015</v>
       </c>
       <c r="H14" t="n">
-        <v>0.07559531815673101</v>
+        <v>0.07485849945593724</v>
       </c>
       <c r="I14" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="J14" t="n">
         <v>5.0</v>
@@ -1869,25 +1857,25 @@
         <v>22</v>
       </c>
       <c r="C15" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D15" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="E15" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="F15" t="n">
-        <v>0.020212633440291557</v>
+        <v>0.02025405616667405</v>
       </c>
       <c r="G15" t="n">
-        <v>0.15954847671126024</v>
+        <v>0.15840610396310748</v>
       </c>
       <c r="H15" t="n">
-        <v>0.13378730428954916</v>
+        <v>0.1325395201850562</v>
       </c>
       <c r="I15" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="J15" t="n">
         <v>19.0</v>
@@ -1901,25 +1889,25 @@
         <v>23</v>
       </c>
       <c r="C16" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D16" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="E16" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="F16" t="n">
-        <v>0.023369992603546788</v>
+        <v>0.02339244399809107</v>
       </c>
       <c r="G16" t="n">
-        <v>0.15954847671126024</v>
+        <v>0.15840610396310748</v>
       </c>
       <c r="H16" t="n">
-        <v>0.13378730428954916</v>
+        <v>0.1325395201850562</v>
       </c>
       <c r="I16" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="J16" t="n">
         <v>6.0</v>
@@ -1933,25 +1921,25 @@
         <v>24</v>
       </c>
       <c r="C17" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D17" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="E17" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="F17" t="n">
-        <v>0.023369992603546788</v>
+        <v>0.02339244399809107</v>
       </c>
       <c r="G17" t="n">
-        <v>0.15954847671126024</v>
+        <v>0.15840610396310748</v>
       </c>
       <c r="H17" t="n">
-        <v>0.13378730428954916</v>
+        <v>0.1325395201850562</v>
       </c>
       <c r="I17" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="J17" t="n">
         <v>6.0</v>
@@ -1965,25 +1953,25 @@
         <v>25</v>
       </c>
       <c r="C18" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D18" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="E18" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="F18" t="n">
-        <v>0.02503784641914475</v>
+        <v>0.025069131449915873</v>
       </c>
       <c r="G18" t="n">
-        <v>0.15954847671126024</v>
+        <v>0.15840610396310748</v>
       </c>
       <c r="H18" t="n">
-        <v>0.13378730428954916</v>
+        <v>0.1325395201850562</v>
       </c>
       <c r="I18" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="J18" t="n">
         <v>9.0</v>
@@ -1997,25 +1985,25 @@
         <v>26</v>
       </c>
       <c r="C19" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D19" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="E19" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="F19" t="n">
-        <v>0.025862947542146034</v>
+        <v>0.025881447446952904</v>
       </c>
       <c r="G19" t="n">
-        <v>0.15954847671126024</v>
+        <v>0.15840610396310748</v>
       </c>
       <c r="H19" t="n">
-        <v>0.13378730428954916</v>
+        <v>0.1325395201850562</v>
       </c>
       <c r="I19" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="J19" t="n">
         <v>4.0</v>
@@ -2029,25 +2017,25 @@
         <v>27</v>
       </c>
       <c r="C20" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D20" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="E20" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="F20" t="n">
-        <v>0.026787415587394104</v>
+        <v>0.026812818103687297</v>
       </c>
       <c r="G20" t="n">
-        <v>0.15954847671126024</v>
+        <v>0.15840610396310748</v>
       </c>
       <c r="H20" t="n">
-        <v>0.13378730428954916</v>
+        <v>0.1325395201850562</v>
       </c>
       <c r="I20" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="J20" t="n">
         <v>6.0</v>
@@ -2061,25 +2049,25 @@
         <v>28</v>
       </c>
       <c r="C21" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D21" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="E21" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="F21" t="n">
-        <v>0.027042114696823768</v>
+        <v>0.027077966489420083</v>
       </c>
       <c r="G21" t="n">
-        <v>0.15954847671126024</v>
+        <v>0.15840610396310748</v>
       </c>
       <c r="H21" t="n">
-        <v>0.13378730428954916</v>
+        <v>0.1325395201850562</v>
       </c>
       <c r="I21" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="J21" t="n">
         <v>10.0</v>
@@ -2093,25 +2081,25 @@
         <v>29</v>
       </c>
       <c r="C22" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D22" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="E22" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="F22" t="n">
-        <v>0.03295081499161443</v>
+        <v>0.03299072289010076</v>
       </c>
       <c r="G22" t="n">
-        <v>0.18515219852430964</v>
+        <v>0.18200945333901355</v>
       </c>
       <c r="H22" t="n">
-        <v>0.15525697289281987</v>
+        <v>0.1522886114307536</v>
       </c>
       <c r="I22" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="J22" t="n">
         <v>9.0</v>
@@ -2125,25 +2113,25 @@
         <v>30</v>
       </c>
       <c r="C23" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D23" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="E23" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="F23" t="n">
-        <v>0.03820664236930721</v>
+        <v>0.03422399977314785</v>
       </c>
       <c r="G23" t="n">
-        <v>0.20492653634446592</v>
+        <v>0.18200945333901355</v>
       </c>
       <c r="H23" t="n">
-        <v>0.17183848721123818</v>
+        <v>0.1522886114307536</v>
       </c>
       <c r="I23" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="J23" t="n">
         <v>16.0</v>
@@ -2156,29 +2144,29 @@
       <c r="B24" t="s">
         <v>31</v>
       </c>
-      <c r="C24" t="e">
-        <v>#N/A</v>
+      <c r="C24" t="s">
+        <v>31</v>
       </c>
       <c r="D24" t="s">
-        <v>248</v>
+        <v>238</v>
       </c>
       <c r="E24" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="F24" t="n">
-        <v>0.04494810537429784</v>
+        <v>0.0439702265773025</v>
       </c>
       <c r="G24" t="n">
-        <v>0.2301713162129044</v>
+        <v>0.21924307322899947</v>
       </c>
       <c r="H24" t="n">
-        <v>0.1930071697057361</v>
+        <v>0.18344224750604543</v>
       </c>
       <c r="I24" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="J24" t="n">
-        <v>3.0</v>
+        <v>12.0</v>
       </c>
     </row>
     <row r="25">
@@ -2188,29 +2176,29 @@
       <c r="B25" t="s">
         <v>32</v>
       </c>
-      <c r="C25" t="e">
-        <v>#N/A</v>
+      <c r="C25" t="s">
+        <v>32</v>
       </c>
       <c r="D25" t="s">
-        <v>240</v>
+        <v>246</v>
       </c>
       <c r="E25" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="F25" t="n">
-        <v>0.04681450499245513</v>
+        <v>0.0449729380982563</v>
       </c>
       <c r="G25" t="n">
-        <v>0.2301713162129044</v>
+        <v>0.21924307322899947</v>
       </c>
       <c r="H25" t="n">
-        <v>0.1930071697057361</v>
+        <v>0.18344224750604543</v>
       </c>
       <c r="I25" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="J25" t="n">
-        <v>12.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="26">
@@ -2221,28 +2209,28 @@
         <v>33</v>
       </c>
       <c r="C26" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D26" t="s">
-        <v>242</v>
+        <v>236</v>
       </c>
       <c r="E26" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="F26" t="n">
-        <v>0.05238830025371587</v>
+        <v>0.05195416440016787</v>
       </c>
       <c r="G26" t="n">
-        <v>0.2472727771975389</v>
+        <v>0.2359050054612426</v>
       </c>
       <c r="H26" t="n">
-        <v>0.20734737784628599</v>
+        <v>0.1973834053791773</v>
       </c>
       <c r="I26" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="J26" t="n">
-        <v>4.0</v>
+        <v>13.0</v>
       </c>
     </row>
     <row r="27">
@@ -2253,28 +2241,28 @@
         <v>34</v>
       </c>
       <c r="C27" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D27" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="E27" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="F27" t="n">
-        <v>0.054953483325871</v>
+        <v>0.0524233345469428</v>
       </c>
       <c r="G27" t="n">
-        <v>0.249404270478953</v>
+        <v>0.2359050054612426</v>
       </c>
       <c r="H27" t="n">
-        <v>0.2091347138717358</v>
+        <v>0.1973834053791773</v>
       </c>
       <c r="I27" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="J27" t="n">
-        <v>13.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="28">
@@ -2285,28 +2273,28 @@
         <v>35</v>
       </c>
       <c r="C28" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D28" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="E28" t="s">
-        <v>261</v>
+        <v>276</v>
       </c>
       <c r="F28" t="n">
-        <v>0.058638211661179905</v>
+        <v>0.05556188140863438</v>
       </c>
       <c r="G28" t="n">
-        <v>0.256270702815527</v>
+        <v>0.24076815277074895</v>
       </c>
       <c r="H28" t="n">
-        <v>0.21489247158483085</v>
+        <v>0.20145243551668607</v>
       </c>
       <c r="I28" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="J28" t="n">
-        <v>5.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="29">
@@ -2317,28 +2305,28 @@
         <v>36</v>
       </c>
       <c r="C29" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D29" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
       <c r="E29" t="s">
-        <v>278</v>
+        <v>259</v>
       </c>
       <c r="F29" t="n">
-        <v>0.07258617668209273</v>
+        <v>0.058683237590726786</v>
       </c>
       <c r="G29" t="n">
-        <v>0.29535064994782556</v>
+        <v>0.2452120999326798</v>
       </c>
       <c r="H29" t="n">
-        <v>0.24766245401512585</v>
+        <v>0.20517071789239066</v>
       </c>
       <c r="I29" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="J29" t="n">
-        <v>6.0</v>
+        <v>5.0</v>
       </c>
     </row>
     <row r="30">
@@ -2349,25 +2337,25 @@
         <v>37</v>
       </c>
       <c r="C30" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D30" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="E30" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="F30" t="n">
-        <v>0.07258617668209273</v>
+        <v>0.07264709672213104</v>
       </c>
       <c r="G30" t="n">
-        <v>0.29535064994782556</v>
+        <v>0.2833236772163111</v>
       </c>
       <c r="H30" t="n">
-        <v>0.24766245401512585</v>
+        <v>0.23705894719853288</v>
       </c>
       <c r="I30" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="J30" t="n">
         <v>6.0</v>
@@ -2381,28 +2369,28 @@
         <v>38</v>
       </c>
       <c r="C31" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D31" t="s">
-        <v>248</v>
+        <v>235</v>
       </c>
       <c r="E31" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="F31" t="n">
-        <v>0.0798422007434419</v>
+        <v>0.07264709672213104</v>
       </c>
       <c r="G31" t="n">
-        <v>0.31404598959087143</v>
+        <v>0.2833236772163111</v>
       </c>
       <c r="H31" t="n">
-        <v>0.26333918841696624</v>
+        <v>0.23705894719853288</v>
       </c>
       <c r="I31" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="J31" t="n">
-        <v>3.0</v>
+        <v>6.0</v>
       </c>
     </row>
     <row r="32">
@@ -2413,25 +2401,25 @@
         <v>39</v>
       </c>
       <c r="C32" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D32" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="E32" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="F32" t="n">
-        <v>0.09344785950275039</v>
+        <v>0.07988370087574385</v>
       </c>
       <c r="G32" t="n">
-        <v>0.3557047555265983</v>
+        <v>0.30149654846651713</v>
       </c>
       <c r="H32" t="n">
-        <v>0.2982716058831422</v>
+        <v>0.2522643185549806</v>
       </c>
       <c r="I32" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="J32" t="n">
         <v>3.0</v>
@@ -2445,28 +2433,28 @@
         <v>40</v>
       </c>
       <c r="C33" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D33" t="s">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="E33" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="F33" t="n">
-        <v>0.12350823342628607</v>
+        <v>0.09349543217658472</v>
       </c>
       <c r="G33" t="n">
-        <v>0.4416355013424775</v>
+        <v>0.3418426738956379</v>
       </c>
       <c r="H33" t="n">
-        <v>0.37032771745042714</v>
+        <v>0.28602221027705194</v>
       </c>
       <c r="I33" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="J33" t="n">
-        <v>4.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="34">
@@ -2477,25 +2465,25 @@
         <v>41</v>
       </c>
       <c r="C34" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D34" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="E34" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="F34" t="n">
-        <v>0.12350823342628607</v>
+        <v>0.1235811535550008</v>
       </c>
       <c r="G34" t="n">
-        <v>0.4416355013424775</v>
+        <v>0.4252645578216204</v>
       </c>
       <c r="H34" t="n">
-        <v>0.37032771745042714</v>
+        <v>0.35582189723266483</v>
       </c>
       <c r="I34" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="J34" t="n">
         <v>4.0</v>
@@ -2509,28 +2497,28 @@
         <v>42</v>
       </c>
       <c r="C35" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D35" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="E35" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="F35" t="n">
-        <v>0.13847815359567997</v>
+        <v>0.1235811535550008</v>
       </c>
       <c r="G35" t="n">
-        <v>0.4806006507144187</v>
+        <v>0.4252645578216204</v>
       </c>
       <c r="H35" t="n">
-        <v>0.40300143770879</v>
+        <v>0.35582189723266483</v>
       </c>
       <c r="I35" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="J35" t="n">
-        <v>5.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="36">
@@ -2541,28 +2529,28 @@
         <v>43</v>
       </c>
       <c r="C36" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D36" t="s">
-        <v>249</v>
+        <v>241</v>
       </c>
       <c r="E36" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="F36" t="n">
-        <v>0.14815963080068778</v>
+        <v>0.13857024844212185</v>
       </c>
       <c r="G36" t="n">
-        <v>0.4879118658152686</v>
+        <v>0.4632205447922359</v>
       </c>
       <c r="H36" t="n">
-        <v>0.40913216223581844</v>
+        <v>0.38757994301104753</v>
       </c>
       <c r="I36" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="J36" t="n">
-        <v>2.0</v>
+        <v>5.0</v>
       </c>
     </row>
     <row r="37">
@@ -2573,28 +2561,28 @@
         <v>44</v>
       </c>
       <c r="C37" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D37" t="s">
-        <v>242</v>
+        <v>247</v>
       </c>
       <c r="E37" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="F37" t="n">
-        <v>0.1488544675368616</v>
+        <v>0.14821250755906928</v>
       </c>
       <c r="G37" t="n">
-        <v>0.4879118658152686</v>
+        <v>0.4709697062848046</v>
       </c>
       <c r="H37" t="n">
-        <v>0.40913216223581844</v>
+        <v>0.3940637218577312</v>
       </c>
       <c r="I37" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="J37" t="n">
-        <v>4.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="38">
@@ -2605,28 +2593,28 @@
         <v>45</v>
       </c>
       <c r="C38" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D38" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="E38" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="F38" t="n">
-        <v>0.16063469909800585</v>
+        <v>0.1489391378849382</v>
       </c>
       <c r="G38" t="n">
-        <v>0.5122944457720187</v>
+        <v>0.4709697062848046</v>
       </c>
       <c r="H38" t="n">
-        <v>0.4295778581852788</v>
+        <v>0.3940637218577312</v>
       </c>
       <c r="I38" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="J38" t="n">
-        <v>5.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="39">
@@ -2637,28 +2625,28 @@
         <v>46</v>
       </c>
       <c r="C39" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D39" t="s">
-        <v>246</v>
+        <v>241</v>
       </c>
       <c r="E39" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="F39" t="n">
-        <v>0.17124273346027988</v>
+        <v>0.16073799393894428</v>
       </c>
       <c r="G39" t="n">
-        <v>0.524040158770621</v>
+        <v>0.4923844444919622</v>
       </c>
       <c r="H39" t="n">
-        <v>0.4394270733669793</v>
+        <v>0.41198158648450284</v>
       </c>
       <c r="I39" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="J39" t="n">
-        <v>10.0</v>
+        <v>5.0</v>
       </c>
     </row>
     <row r="40">
@@ -2669,28 +2657,28 @@
         <v>47</v>
       </c>
       <c r="C40" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D40" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
       <c r="E40" t="s">
-        <v>263</v>
+        <v>285</v>
       </c>
       <c r="F40" t="n">
-        <v>0.17319971349198493</v>
+        <v>0.1641281481639874</v>
       </c>
       <c r="G40" t="n">
-        <v>0.524040158770621</v>
+        <v>0.4923844444919622</v>
       </c>
       <c r="H40" t="n">
-        <v>0.4394270733669793</v>
+        <v>0.41198158648450284</v>
       </c>
       <c r="I40" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="J40" t="n">
-        <v>2.0</v>
+        <v>10.0</v>
       </c>
     </row>
     <row r="41">
@@ -2701,28 +2689,28 @@
         <v>48</v>
       </c>
       <c r="C41" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D41" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="E41" t="s">
-        <v>287</v>
+        <v>261</v>
       </c>
       <c r="F41" t="n">
-        <v>0.2156087358262564</v>
+        <v>0.1732598972592855</v>
       </c>
       <c r="G41" t="n">
-        <v>0.6360457706874564</v>
+        <v>0.50678519948341</v>
       </c>
       <c r="H41" t="n">
-        <v>0.53334792546495</v>
+        <v>0.42403080118719877</v>
       </c>
       <c r="I41" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="J41" t="n">
-        <v>9.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="42">
@@ -2733,28 +2721,28 @@
         <v>49</v>
       </c>
       <c r="C42" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D42" t="s">
-        <v>249</v>
+        <v>243</v>
       </c>
       <c r="E42" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="F42" t="n">
-        <v>0.22490789380463505</v>
+        <v>0.21578952338631244</v>
       </c>
       <c r="G42" t="n">
-        <v>0.6472958894865106</v>
+        <v>0.6157896155170379</v>
       </c>
       <c r="H42" t="n">
-        <v>0.5427815665631758</v>
+        <v>0.5152355757362531</v>
       </c>
       <c r="I42" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="J42" t="n">
-        <v>2.0</v>
+        <v>9.0</v>
       </c>
     </row>
     <row r="43">
@@ -2765,25 +2753,25 @@
         <v>50</v>
       </c>
       <c r="C43" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D43" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="E43" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="F43" t="n">
-        <v>0.2499374983060253</v>
+        <v>0.25006151861029396</v>
       </c>
       <c r="G43" t="n">
-        <v>0.7022053523835948</v>
+        <v>0.6965999447001046</v>
       </c>
       <c r="H43" t="n">
-        <v>0.5888251839791072</v>
+        <v>0.5828501561593319</v>
       </c>
       <c r="I43" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="J43" t="n">
         <v>4.0</v>
@@ -2797,25 +2785,25 @@
         <v>51</v>
       </c>
       <c r="C44" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D44" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="E44" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="F44" t="n">
-        <v>0.26016165805082053</v>
+        <v>0.2603523977312281</v>
       </c>
       <c r="G44" t="n">
-        <v>0.7139319918603912</v>
+        <v>0.7084007101058997</v>
       </c>
       <c r="H44" t="n">
-        <v>0.5986584053066617</v>
+        <v>0.5927239409792953</v>
       </c>
       <c r="I44" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="J44" t="n">
         <v>8.0</v>
@@ -2829,25 +2817,25 @@
         <v>52</v>
       </c>
       <c r="C45" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D45" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="E45" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="F45" t="n">
-        <v>0.27755755398778836</v>
+        <v>0.2776439499026099</v>
       </c>
       <c r="G45" t="n">
-        <v>0.7348523030053871</v>
+        <v>0.7291055859498805</v>
       </c>
       <c r="H45" t="n">
-        <v>0.6162008606824834</v>
+        <v>0.6100478586895086</v>
       </c>
       <c r="I45" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="J45" t="n">
         <v>2.0</v>
@@ -2861,25 +2849,25 @@
         <v>53</v>
       </c>
       <c r="C46" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D46" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="E46" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="F46" t="n">
-        <v>0.2802402850444273</v>
+        <v>0.28042522536533865</v>
       </c>
       <c r="G46" t="n">
-        <v>0.7348523030053871</v>
+        <v>0.7291055859498805</v>
       </c>
       <c r="H46" t="n">
-        <v>0.6162008606824834</v>
+        <v>0.6100478586895086</v>
       </c>
       <c r="I46" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="J46" t="n">
         <v>7.0</v>
@@ -2893,25 +2881,25 @@
         <v>54</v>
       </c>
       <c r="C47" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D47" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="E47" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="F47" t="n">
-        <v>0.3236376546391405</v>
+        <v>0.323760683630531</v>
       </c>
       <c r="G47" t="n">
-        <v>0.8267216073049272</v>
+        <v>0.8199362371016974</v>
       </c>
       <c r="H47" t="n">
-        <v>0.6932366733868256</v>
+        <v>0.6860465141741598</v>
       </c>
       <c r="I47" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="J47" t="n">
         <v>3.0</v>
@@ -2925,25 +2913,25 @@
         <v>55</v>
       </c>
       <c r="C48" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D48" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="E48" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="F48" t="n">
-        <v>0.35582841610283555</v>
+        <v>0.355930055458313</v>
       </c>
       <c r="G48" t="n">
-        <v>0.8267216073049272</v>
+        <v>0.8199362371016974</v>
       </c>
       <c r="H48" t="n">
-        <v>0.6932366733868256</v>
+        <v>0.6860465141741598</v>
       </c>
       <c r="I48" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="J48" t="n">
         <v>2.0</v>
@@ -2957,25 +2945,25 @@
         <v>56</v>
       </c>
       <c r="C49" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D49" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="E49" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="F49" t="n">
-        <v>0.3612582227779729</v>
+        <v>0.36141303362197996</v>
       </c>
       <c r="G49" t="n">
-        <v>0.8267216073049272</v>
+        <v>0.8199362371016974</v>
       </c>
       <c r="H49" t="n">
-        <v>0.6932366733868256</v>
+        <v>0.6860465141741598</v>
       </c>
       <c r="I49" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="J49" t="n">
         <v>4.0</v>
@@ -2989,25 +2977,25 @@
         <v>57</v>
       </c>
       <c r="C50" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D50" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="E50" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="F50" t="n">
-        <v>0.36243352697417786</v>
+        <v>0.3625647552657195</v>
       </c>
       <c r="G50" t="n">
-        <v>0.8267216073049272</v>
+        <v>0.8199362371016974</v>
       </c>
       <c r="H50" t="n">
-        <v>0.6932366733868256</v>
+        <v>0.6860465141741598</v>
       </c>
       <c r="I50" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="J50" t="n">
         <v>3.0</v>
@@ -3021,25 +3009,25 @@
         <v>58</v>
       </c>
       <c r="C51" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D51" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="E51" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="F51" t="n">
-        <v>0.37406198850911315</v>
+        <v>0.37435158863308365</v>
       </c>
       <c r="G51" t="n">
-        <v>0.8267216073049272</v>
+        <v>0.8199362371016974</v>
       </c>
       <c r="H51" t="n">
-        <v>0.6932366733868256</v>
+        <v>0.6860465141741598</v>
       </c>
       <c r="I51" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="J51" t="n">
         <v>12.0</v>
@@ -3053,25 +3041,25 @@
         <v>59</v>
       </c>
       <c r="C52" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D52" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="E52" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="F52" t="n">
-        <v>0.3813100003996466</v>
+        <v>0.3814157733660615</v>
       </c>
       <c r="G52" t="n">
-        <v>0.8267216073049272</v>
+        <v>0.8199362371016974</v>
       </c>
       <c r="H52" t="n">
-        <v>0.6932366733868256</v>
+        <v>0.6860465141741598</v>
       </c>
       <c r="I52" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
       <c r="J52" t="n">
         <v>2.0</v>
@@ -3085,25 +3073,25 @@
         <v>60</v>
       </c>
       <c r="C53" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D53" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="E53" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="F53" t="n">
-        <v>0.39646303003444144</v>
+        <v>0.39686536261322836</v>
       </c>
       <c r="G53" t="n">
-        <v>0.8267216073049272</v>
+        <v>0.8199362371016974</v>
       </c>
       <c r="H53" t="n">
-        <v>0.6932366733868256</v>
+        <v>0.6860465141741598</v>
       </c>
       <c r="I53" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="J53" t="n">
         <v>21.0</v>
@@ -3117,25 +3105,25 @@
         <v>61</v>
       </c>
       <c r="C54" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D54" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="E54" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="F54" t="n">
-        <v>0.40087492797579183</v>
+        <v>0.4010130308600751</v>
       </c>
       <c r="G54" t="n">
-        <v>0.8267216073049272</v>
+        <v>0.8199362371016974</v>
       </c>
       <c r="H54" t="n">
-        <v>0.6932366733868256</v>
+        <v>0.6860465141741598</v>
       </c>
       <c r="I54" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="J54" t="n">
         <v>3.0</v>
@@ -3149,25 +3137,25 @@
         <v>62</v>
       </c>
       <c r="C55" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D55" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="E55" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="F55" t="n">
-        <v>0.40087492797579183</v>
+        <v>0.4010130308600751</v>
       </c>
       <c r="G55" t="n">
-        <v>0.8267216073049272</v>
+        <v>0.8199362371016974</v>
       </c>
       <c r="H55" t="n">
-        <v>0.6932366733868256</v>
+        <v>0.6860465141741598</v>
       </c>
       <c r="I55" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="J55" t="n">
         <v>3.0</v>
@@ -3181,25 +3169,25 @@
         <v>63</v>
       </c>
       <c r="C56" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D56" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="E56" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="F56" t="n">
-        <v>0.40087492797579183</v>
+        <v>0.4010130308600751</v>
       </c>
       <c r="G56" t="n">
-        <v>0.8267216073049272</v>
+        <v>0.8199362371016974</v>
       </c>
       <c r="H56" t="n">
-        <v>0.6932366733868256</v>
+        <v>0.6860465141741598</v>
       </c>
       <c r="I56" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="J56" t="n">
         <v>3.0</v>
@@ -3213,25 +3201,25 @@
         <v>64</v>
       </c>
       <c r="C57" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D57" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="E57" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="F57" t="n">
-        <v>0.40087492797579183</v>
+        <v>0.4010130308600751</v>
       </c>
       <c r="G57" t="n">
-        <v>0.8267216073049272</v>
+        <v>0.8199362371016974</v>
       </c>
       <c r="H57" t="n">
-        <v>0.6932366733868256</v>
+        <v>0.6860465141741598</v>
       </c>
       <c r="I57" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
       <c r="J57" t="n">
         <v>3.0</v>
@@ -3245,25 +3233,25 @@
         <v>65</v>
       </c>
       <c r="C58" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D58" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="E58" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="F58" t="n">
-        <v>0.40087492797579183</v>
+        <v>0.4010130308600751</v>
       </c>
       <c r="G58" t="n">
-        <v>0.8267216073049272</v>
+        <v>0.8199362371016974</v>
       </c>
       <c r="H58" t="n">
-        <v>0.6932366733868256</v>
+        <v>0.6860465141741598</v>
       </c>
       <c r="I58" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="J58" t="n">
         <v>3.0</v>
@@ -3277,25 +3265,25 @@
         <v>66</v>
       </c>
       <c r="C59" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D59" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="E59" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="F59" t="n">
-        <v>0.40635468833632016</v>
+        <v>0.4064641175375936</v>
       </c>
       <c r="G59" t="n">
-        <v>0.8267216073049272</v>
+        <v>0.8199362371016974</v>
       </c>
       <c r="H59" t="n">
-        <v>0.6932366733868256</v>
+        <v>0.6860465141741598</v>
       </c>
       <c r="I59" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="J59" t="n">
         <v>2.0</v>
@@ -3309,25 +3297,25 @@
         <v>67</v>
       </c>
       <c r="C60" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D60" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="E60" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="F60" t="n">
-        <v>0.4754831637428717</v>
+        <v>0.47563098121508973</v>
       </c>
       <c r="G60" t="n">
-        <v>0.9509663274857434</v>
+        <v>0.9432004203756864</v>
       </c>
       <c r="H60" t="n">
-        <v>0.7974204708622648</v>
+        <v>0.7891825379661613</v>
       </c>
       <c r="I60" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="J60" t="n">
         <v>3.0</v>
@@ -3340,26 +3328,26 @@
       <c r="B61" t="s">
         <v>68</v>
       </c>
-      <c r="C61" t="e">
-        <v>#N/A</v>
+      <c r="C61" t="s">
+        <v>68</v>
       </c>
       <c r="D61" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="E61" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="F61" t="n">
-        <v>0.523229182674831</v>
+        <v>0.5233500754431967</v>
       </c>
       <c r="G61" t="n">
-        <v>0.9990676217198062</v>
+        <v>0.9990694217782989</v>
       </c>
       <c r="H61" t="n">
-        <v>0.8377551868123264</v>
+        <v>0.8359285310425714</v>
       </c>
       <c r="I61" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="J61" t="n">
         <v>2.0</v>
@@ -3373,25 +3361,25 @@
         <v>69</v>
       </c>
       <c r="C62" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D62" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="E62" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="F62" t="n">
-        <v>0.54469772345711</v>
+        <v>0.5448196564202828</v>
       </c>
       <c r="G62" t="n">
-        <v>0.9990676217198062</v>
+        <v>0.9990694217782989</v>
       </c>
       <c r="H62" t="n">
-        <v>0.8377551868123264</v>
+        <v>0.8359285310425714</v>
       </c>
       <c r="I62" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="J62" t="n">
         <v>2.0</v>
@@ -3405,25 +3393,25 @@
         <v>70</v>
       </c>
       <c r="C63" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D63" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="E63" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="F63" t="n">
-        <v>0.5450886622370497</v>
+        <v>0.5451699007699267</v>
       </c>
       <c r="G63" t="n">
-        <v>0.9990676217198062</v>
+        <v>0.9990694217782989</v>
       </c>
       <c r="H63" t="n">
-        <v>0.8377551868123264</v>
+        <v>0.8359285310425714</v>
       </c>
       <c r="I63" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="J63" t="n">
         <v>1.0</v>
@@ -3437,25 +3425,25 @@
         <v>71</v>
       </c>
       <c r="C64" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D64" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="E64" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="F64" t="n">
-        <v>0.574202215166924</v>
+        <v>0.5744023161880873</v>
       </c>
       <c r="G64" t="n">
-        <v>0.9990676217198062</v>
+        <v>0.9990694217782989</v>
       </c>
       <c r="H64" t="n">
-        <v>0.8377551868123264</v>
+        <v>0.8359285310425714</v>
       </c>
       <c r="I64" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="J64" t="n">
         <v>5.0</v>
@@ -3469,25 +3457,25 @@
         <v>72</v>
       </c>
       <c r="C65" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D65" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="E65" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="F65" t="n">
-        <v>0.5765649010662794</v>
+        <v>0.5766474109225115</v>
       </c>
       <c r="G65" t="n">
-        <v>0.9990676217198062</v>
+        <v>0.9990694217782989</v>
       </c>
       <c r="H65" t="n">
-        <v>0.8377551868123264</v>
+        <v>0.8359285310425714</v>
       </c>
       <c r="I65" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
       <c r="J65" t="n">
         <v>1.0</v>
@@ -3501,25 +3489,25 @@
         <v>73</v>
       </c>
       <c r="C66" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="D66" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="E66" t="s">
-        <v>288</v>
+        <v>276</v>
       </c>
       <c r="F66" t="n">
-        <v>0.6058696516714164</v>
+        <v>0.6059528694435381</v>
       </c>
       <c r="G66" t="n">
-        <v>0.9990676217198062</v>
+        <v>0.9990694217782989</v>
       </c>
       <c r="H66" t="n">
-        <v>0.8377551868123264</v>
+        <v>0.8359285310425714</v>
       </c>
       <c r="I66" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
       <c r="J66" t="n">
         <v>1.0</v>
@@ -3533,25 +3521,25 @@
         <v>74</v>
       </c>
       <c r="C67" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D67" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="E67" t="s">
-        <v>288</v>
+        <v>276</v>
       </c>
       <c r="F67" t="n">
-        <v>0.6058696516714164</v>
+        <v>0.6059528694435381</v>
       </c>
       <c r="G67" t="n">
-        <v>0.9990676217198062</v>
+        <v>0.9990694217782989</v>
       </c>
       <c r="H67" t="n">
-        <v>0.8377551868123264</v>
+        <v>0.8359285310425714</v>
       </c>
       <c r="I67" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="J67" t="n">
         <v>1.0</v>
@@ -3565,25 +3553,25 @@
         <v>75</v>
       </c>
       <c r="C68" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D68" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="E68" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="F68" t="n">
-        <v>0.6106562892989491</v>
+        <v>0.6109939993488144</v>
       </c>
       <c r="G68" t="n">
-        <v>0.9990676217198062</v>
+        <v>0.9990694217782989</v>
       </c>
       <c r="H68" t="n">
-        <v>0.8377551868123264</v>
+        <v>0.8359285310425714</v>
       </c>
       <c r="I68" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
       <c r="J68" t="n">
         <v>14.0</v>
@@ -3597,25 +3585,25 @@
         <v>76</v>
       </c>
       <c r="C69" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D69" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="E69" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="F69" t="n">
-        <v>0.6249759744314429</v>
+        <v>0.6251277174596076</v>
       </c>
       <c r="G69" t="n">
-        <v>0.9990676217198062</v>
+        <v>0.9990694217782989</v>
       </c>
       <c r="H69" t="n">
-        <v>0.8377551868123264</v>
+        <v>0.8359285310425714</v>
       </c>
       <c r="I69" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
       <c r="J69" t="n">
         <v>3.0</v>
@@ -3629,25 +3617,25 @@
         <v>77</v>
       </c>
       <c r="C70" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D70" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="E70" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="F70" t="n">
-        <v>0.633152278193176</v>
+        <v>0.6332357119623468</v>
       </c>
       <c r="G70" t="n">
-        <v>0.9990676217198062</v>
+        <v>0.9990694217782989</v>
       </c>
       <c r="H70" t="n">
-        <v>0.8377551868123264</v>
+        <v>0.8359285310425714</v>
       </c>
       <c r="I70" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
       <c r="J70" t="n">
         <v>1.0</v>
@@ -3661,25 +3649,25 @@
         <v>78</v>
       </c>
       <c r="C71" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D71" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="E71" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="F71" t="n">
-        <v>0.633152278193176</v>
+        <v>0.6332357119623468</v>
       </c>
       <c r="G71" t="n">
-        <v>0.9990676217198062</v>
+        <v>0.9990694217782989</v>
       </c>
       <c r="H71" t="n">
-        <v>0.8377551868123264</v>
+        <v>0.8359285310425714</v>
       </c>
       <c r="I71" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="J71" t="n">
         <v>1.0</v>
@@ -3693,25 +3681,25 @@
         <v>79</v>
       </c>
       <c r="C72" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D72" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="E72" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="F72" t="n">
-        <v>0.6392835750182997</v>
+        <v>0.6394987305202993</v>
       </c>
       <c r="G72" t="n">
-        <v>0.9990676217198062</v>
+        <v>0.9990694217782989</v>
       </c>
       <c r="H72" t="n">
-        <v>0.8377551868123264</v>
+        <v>0.8359285310425714</v>
       </c>
       <c r="I72" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
       <c r="J72" t="n">
         <v>6.0</v>
@@ -3725,25 +3713,25 @@
         <v>80</v>
       </c>
       <c r="C73" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D73" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="E73" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="F73" t="n">
-        <v>0.6417124933119358</v>
+        <v>0.6418344984422006</v>
       </c>
       <c r="G73" t="n">
-        <v>0.9990676217198062</v>
+        <v>0.9990694217782989</v>
       </c>
       <c r="H73" t="n">
-        <v>0.8377551868123264</v>
+        <v>0.8359285310425714</v>
       </c>
       <c r="I73" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="J73" t="n">
         <v>2.0</v>
@@ -3757,25 +3745,25 @@
         <v>81</v>
       </c>
       <c r="C74" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D74" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="E74" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="F74" t="n">
-        <v>0.6672922527300584</v>
+        <v>0.6674847334588523</v>
       </c>
       <c r="G74" t="n">
-        <v>0.9990676217198062</v>
+        <v>0.9990694217782989</v>
       </c>
       <c r="H74" t="n">
-        <v>0.8377551868123264</v>
+        <v>0.8359285310425714</v>
       </c>
       <c r="I74" t="s">
-        <v>406</v>
+        <v>403</v>
       </c>
       <c r="J74" t="n">
         <v>5.0</v>
@@ -3789,25 +3777,25 @@
         <v>82</v>
       </c>
       <c r="C75" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D75" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="E75" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="F75" t="n">
-        <v>0.6678476446080844</v>
+        <v>0.6679962166505187</v>
       </c>
       <c r="G75" t="n">
-        <v>0.9990676217198062</v>
+        <v>0.9990694217782989</v>
       </c>
       <c r="H75" t="n">
-        <v>0.8377551868123264</v>
+        <v>0.8359285310425714</v>
       </c>
       <c r="I75" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
       <c r="J75" t="n">
         <v>3.0</v>
@@ -3821,25 +3809,25 @@
         <v>83</v>
       </c>
       <c r="C76" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="D76" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="E76" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="F76" t="n">
-        <v>0.6943841766864696</v>
+        <v>0.6945296935670848</v>
       </c>
       <c r="G76" t="n">
-        <v>0.9990676217198062</v>
+        <v>0.9990694217782989</v>
       </c>
       <c r="H76" t="n">
-        <v>0.8377551868123264</v>
+        <v>0.8359285310425714</v>
       </c>
       <c r="I76" t="s">
-        <v>408</v>
+        <v>405</v>
       </c>
       <c r="J76" t="n">
         <v>3.0</v>
@@ -3853,25 +3841,25 @@
         <v>84</v>
       </c>
       <c r="C77" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="D77" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="E77" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="F77" t="n">
-        <v>0.7034152412543986</v>
+        <v>0.7036646745210919</v>
       </c>
       <c r="G77" t="n">
-        <v>0.9990676217198062</v>
+        <v>0.9990694217782989</v>
       </c>
       <c r="H77" t="n">
-        <v>0.8377551868123264</v>
+        <v>0.8359285310425714</v>
       </c>
       <c r="I77" t="s">
-        <v>409</v>
+        <v>406</v>
       </c>
       <c r="J77" t="n">
         <v>9.0</v>
@@ -3884,26 +3872,26 @@
       <c r="B78" t="s">
         <v>85</v>
       </c>
-      <c r="C78" t="e">
-        <v>#N/A</v>
+      <c r="C78" t="s">
+        <v>85</v>
       </c>
       <c r="D78" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="E78" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="F78" t="n">
-        <v>0.7182645688459078</v>
+        <v>0.718447363042306</v>
       </c>
       <c r="G78" t="n">
-        <v>0.9990676217198062</v>
+        <v>0.9990694217782989</v>
       </c>
       <c r="H78" t="n">
-        <v>0.8377551868123264</v>
+        <v>0.8359285310425714</v>
       </c>
       <c r="I78" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="J78" t="n">
         <v>5.0</v>
@@ -3917,25 +3905,25 @@
         <v>86</v>
       </c>
       <c r="C79" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D79" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="E79" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="F79" t="n">
-        <v>0.7192941348559119</v>
+        <v>0.7194359665184599</v>
       </c>
       <c r="G79" t="n">
-        <v>0.9990676217198062</v>
+        <v>0.9990694217782989</v>
       </c>
       <c r="H79" t="n">
-        <v>0.8377551868123264</v>
+        <v>0.8359285310425714</v>
       </c>
       <c r="I79" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="J79" t="n">
         <v>3.0</v>
@@ -3949,25 +3937,25 @@
         <v>87</v>
       </c>
       <c r="C80" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D80" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="E80" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="F80" t="n">
-        <v>0.7248381754508842</v>
+        <v>0.7250667987644563</v>
       </c>
       <c r="G80" t="n">
-        <v>0.9990676217198062</v>
+        <v>0.9990694217782989</v>
       </c>
       <c r="H80" t="n">
-        <v>0.8377551868123264</v>
+        <v>0.8359285310425714</v>
       </c>
       <c r="I80" t="s">
-        <v>412</v>
+        <v>409</v>
       </c>
       <c r="J80" t="n">
         <v>8.0</v>
@@ -3981,25 +3969,25 @@
         <v>88</v>
       </c>
       <c r="C81" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D81" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="E81" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="F81" t="n">
-        <v>0.7460723473257118</v>
+        <v>0.7462480025984305</v>
       </c>
       <c r="G81" t="n">
-        <v>0.9990676217198062</v>
+        <v>0.9990694217782989</v>
       </c>
       <c r="H81" t="n">
-        <v>0.8377551868123264</v>
+        <v>0.8359285310425714</v>
       </c>
       <c r="I81" t="s">
-        <v>413</v>
+        <v>410</v>
       </c>
       <c r="J81" t="n">
         <v>5.0</v>
@@ -4013,25 +4001,25 @@
         <v>89</v>
       </c>
       <c r="C82" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D82" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="E82" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="F82" t="n">
-        <v>0.7729519771530005</v>
+        <v>0.7731865623712395</v>
       </c>
       <c r="G82" t="n">
-        <v>0.9990676217198062</v>
+        <v>0.9990694217782989</v>
       </c>
       <c r="H82" t="n">
-        <v>0.8377551868123264</v>
+        <v>0.8359285310425714</v>
       </c>
       <c r="I82" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="J82" t="n">
         <v>10.0</v>
@@ -4045,25 +4033,25 @@
         <v>90</v>
       </c>
       <c r="C83" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D83" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="E83" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="F83" t="n">
-        <v>0.7746564106139273</v>
+        <v>0.7747869244344519</v>
       </c>
       <c r="G83" t="n">
-        <v>0.9990676217198062</v>
+        <v>0.9990694217782989</v>
       </c>
       <c r="H83" t="n">
-        <v>0.8377551868123264</v>
+        <v>0.8359285310425714</v>
       </c>
       <c r="I83" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
       <c r="J83" t="n">
         <v>3.0</v>
@@ -4077,25 +4065,25 @@
         <v>91</v>
       </c>
       <c r="C84" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D84" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="E84" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="F84" t="n">
-        <v>0.7845686664965466</v>
+        <v>0.7847607768397973</v>
       </c>
       <c r="G84" t="n">
-        <v>0.9990676217198062</v>
+        <v>0.9990694217782989</v>
       </c>
       <c r="H84" t="n">
-        <v>0.8377551868123264</v>
+        <v>0.8359285310425714</v>
       </c>
       <c r="I84" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="J84" t="n">
         <v>7.0</v>
@@ -4109,25 +4097,25 @@
         <v>92</v>
       </c>
       <c r="C85" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D85" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="E85" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="F85" t="n">
-        <v>0.7934627541366175</v>
+        <v>0.7935366995062396</v>
       </c>
       <c r="G85" t="n">
-        <v>0.9990676217198062</v>
+        <v>0.9990694217782989</v>
       </c>
       <c r="H85" t="n">
-        <v>0.8377551868123264</v>
+        <v>0.8359285310425714</v>
       </c>
       <c r="I85" t="s">
-        <v>417</v>
+        <v>414</v>
       </c>
       <c r="J85" t="n">
         <v>1.0</v>
@@ -4141,25 +4129,25 @@
         <v>93</v>
       </c>
       <c r="C86" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D86" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="E86" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="F86" t="n">
-        <v>0.7934627541366175</v>
+        <v>0.7935366995062396</v>
       </c>
       <c r="G86" t="n">
-        <v>0.9990676217198062</v>
+        <v>0.9990694217782989</v>
       </c>
       <c r="H86" t="n">
-        <v>0.8377551868123264</v>
+        <v>0.8359285310425714</v>
       </c>
       <c r="I86" t="s">
-        <v>418</v>
+        <v>415</v>
       </c>
       <c r="J86" t="n">
         <v>1.0</v>
@@ -4173,25 +4161,25 @@
         <v>94</v>
       </c>
       <c r="C87" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D87" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="E87" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="F87" t="n">
-        <v>0.7934627541366175</v>
+        <v>0.7935366995062396</v>
       </c>
       <c r="G87" t="n">
-        <v>0.9990676217198062</v>
+        <v>0.9990694217782989</v>
       </c>
       <c r="H87" t="n">
-        <v>0.8377551868123264</v>
+        <v>0.8359285310425714</v>
       </c>
       <c r="I87" t="s">
-        <v>419</v>
+        <v>416</v>
       </c>
       <c r="J87" t="n">
         <v>1.0</v>
@@ -4205,25 +4193,25 @@
         <v>95</v>
       </c>
       <c r="C88" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D88" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="E88" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="F88" t="n">
-        <v>0.8077879889243323</v>
+        <v>0.8078599493319318</v>
       </c>
       <c r="G88" t="n">
-        <v>0.9990676217198062</v>
+        <v>0.9990694217782989</v>
       </c>
       <c r="H88" t="n">
-        <v>0.8377551868123264</v>
+        <v>0.8359285310425714</v>
       </c>
       <c r="I88" t="s">
-        <v>420</v>
+        <v>417</v>
       </c>
       <c r="J88" t="n">
         <v>1.0</v>
@@ -4237,25 +4225,25 @@
         <v>96</v>
       </c>
       <c r="C89" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D89" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="E89" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="F89" t="n">
-        <v>0.8077879889243323</v>
+        <v>0.8078599493319318</v>
       </c>
       <c r="G89" t="n">
-        <v>0.9990676217198062</v>
+        <v>0.9990694217782989</v>
       </c>
       <c r="H89" t="n">
-        <v>0.8377551868123264</v>
+        <v>0.8359285310425714</v>
       </c>
       <c r="I89" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
       <c r="J89" t="n">
         <v>1.0</v>
@@ -4269,25 +4257,25 @@
         <v>97</v>
       </c>
       <c r="C90" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D90" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="E90" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="F90" t="n">
-        <v>0.8122382979167337</v>
+        <v>0.8123583316118725</v>
       </c>
       <c r="G90" t="n">
-        <v>0.9990676217198062</v>
+        <v>0.9990694217782989</v>
       </c>
       <c r="H90" t="n">
-        <v>0.8377551868123264</v>
+        <v>0.8359285310425714</v>
       </c>
       <c r="I90" t="s">
-        <v>422</v>
+        <v>419</v>
       </c>
       <c r="J90" t="n">
         <v>3.0</v>
@@ -4301,25 +4289,25 @@
         <v>98</v>
       </c>
       <c r="C91" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D91" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="E91" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="F91" t="n">
-        <v>0.8182059846089675</v>
+        <v>0.8183037473341251</v>
       </c>
       <c r="G91" t="n">
-        <v>0.9990676217198062</v>
+        <v>0.9990694217782989</v>
       </c>
       <c r="H91" t="n">
-        <v>0.8377551868123264</v>
+        <v>0.8359285310425714</v>
       </c>
       <c r="I91" t="s">
-        <v>423</v>
+        <v>420</v>
       </c>
       <c r="J91" t="n">
         <v>2.0</v>
@@ -4333,25 +4321,25 @@
         <v>99</v>
       </c>
       <c r="C92" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D92" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="E92" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="F92" t="n">
-        <v>0.8208523109607748</v>
+        <v>0.8209864321479212</v>
       </c>
       <c r="G92" t="n">
-        <v>0.9990676217198062</v>
+        <v>0.9990694217782989</v>
       </c>
       <c r="H92" t="n">
-        <v>0.8377551868123264</v>
+        <v>0.8359285310425714</v>
       </c>
       <c r="I92" t="s">
-        <v>424</v>
+        <v>421</v>
       </c>
       <c r="J92" t="n">
         <v>4.0</v>
@@ -4365,25 +4353,25 @@
         <v>100</v>
       </c>
       <c r="C93" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D93" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="E93" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="F93" t="n">
-        <v>0.8624666607238394</v>
+        <v>0.8626062703738022</v>
       </c>
       <c r="G93" t="n">
-        <v>0.9990676217198062</v>
+        <v>0.9990694217782989</v>
       </c>
       <c r="H93" t="n">
-        <v>0.8377551868123264</v>
+        <v>0.8359285310425714</v>
       </c>
       <c r="I93" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
       <c r="J93" t="n">
         <v>6.0</v>
@@ -4397,25 +4385,25 @@
         <v>101</v>
       </c>
       <c r="C94" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="D94" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="E94" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="F94" t="n">
-        <v>0.8723978466172779</v>
+        <v>0.8676456694644833</v>
       </c>
       <c r="G94" t="n">
-        <v>0.9990676217198062</v>
+        <v>0.9990694217782989</v>
       </c>
       <c r="H94" t="n">
-        <v>0.8377551868123264</v>
+        <v>0.8359285310425714</v>
       </c>
       <c r="I94" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
       <c r="J94" t="n">
         <v>6.0</v>
@@ -4429,25 +4417,25 @@
         <v>102</v>
       </c>
       <c r="C95" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D95" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="E95" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="F95" t="n">
-        <v>0.8768626287103938</v>
+        <v>0.8769423196785509</v>
       </c>
       <c r="G95" t="n">
-        <v>0.9990676217198062</v>
+        <v>0.9990694217782989</v>
       </c>
       <c r="H95" t="n">
-        <v>0.8377551868123264</v>
+        <v>0.8359285310425714</v>
       </c>
       <c r="I95" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="J95" t="n">
         <v>2.0</v>
@@ -4461,25 +4449,25 @@
         <v>103</v>
       </c>
       <c r="C96" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="D96" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="E96" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="F96" t="n">
-        <v>0.8768626287103938</v>
+        <v>0.8769423196785509</v>
       </c>
       <c r="G96" t="n">
-        <v>0.9990676217198062</v>
+        <v>0.9990694217782989</v>
       </c>
       <c r="H96" t="n">
-        <v>0.8377551868123264</v>
+        <v>0.8359285310425714</v>
       </c>
       <c r="I96" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
       <c r="J96" t="n">
         <v>2.0</v>
@@ -4493,25 +4481,25 @@
         <v>104</v>
       </c>
       <c r="C97" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D97" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="E97" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="F97" t="n">
-        <v>0.8782783437952231</v>
+        <v>0.8783861053472193</v>
       </c>
       <c r="G97" t="n">
-        <v>0.9990676217198062</v>
+        <v>0.9990694217782989</v>
       </c>
       <c r="H97" t="n">
-        <v>0.8377551868123264</v>
+        <v>0.8359285310425714</v>
       </c>
       <c r="I97" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="J97" t="n">
         <v>4.0</v>
@@ -4525,25 +4513,25 @@
         <v>105</v>
       </c>
       <c r="C98" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D98" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="E98" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="F98" t="n">
-        <v>0.8838400641276507</v>
+        <v>0.883896874913858</v>
       </c>
       <c r="G98" t="n">
-        <v>0.9990676217198062</v>
+        <v>0.9990694217782989</v>
       </c>
       <c r="H98" t="n">
-        <v>0.8377551868123264</v>
+        <v>0.8359285310425714</v>
       </c>
       <c r="I98" t="s">
-        <v>417</v>
+        <v>414</v>
       </c>
       <c r="J98" t="n">
         <v>1.0</v>
@@ -4557,25 +4545,25 @@
         <v>106</v>
       </c>
       <c r="C99" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D99" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="E99" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="F99" t="n">
-        <v>0.888636876714177</v>
+        <v>0.8887388965729961</v>
       </c>
       <c r="G99" t="n">
-        <v>0.9990676217198062</v>
+        <v>0.9990694217782989</v>
       </c>
       <c r="H99" t="n">
-        <v>0.8377551868123264</v>
+        <v>0.8359285310425714</v>
       </c>
       <c r="I99" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
       <c r="J99" t="n">
         <v>4.0</v>
@@ -4589,25 +4577,25 @@
         <v>107</v>
       </c>
       <c r="C100" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="D100" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="E100" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="F100" t="n">
-        <v>0.8987516296689464</v>
+        <v>0.8989166740722456</v>
       </c>
       <c r="G100" t="n">
-        <v>0.9990676217198062</v>
+        <v>0.9990694217782989</v>
       </c>
       <c r="H100" t="n">
-        <v>0.8377551868123264</v>
+        <v>0.8359285310425714</v>
       </c>
       <c r="I100" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
       <c r="J100" t="n">
         <v>13.0</v>
@@ -4621,25 +4609,25 @@
         <v>108</v>
       </c>
       <c r="C101" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D101" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="E101" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="F101" t="n">
-        <v>0.9188124814946712</v>
+        <v>0.9189041203217192</v>
       </c>
       <c r="G101" t="n">
-        <v>0.9990676217198062</v>
+        <v>0.9990694217782989</v>
       </c>
       <c r="H101" t="n">
-        <v>0.8377551868123264</v>
+        <v>0.8359285310425714</v>
       </c>
       <c r="I101" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
       <c r="J101" t="n">
         <v>5.0</v>
@@ -4653,28 +4641,28 @@
         <v>109</v>
       </c>
       <c r="C102" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="D102" t="s">
-        <v>251</v>
+        <v>244</v>
       </c>
       <c r="E102" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="F102" t="n">
-        <v>0.9474417610256016</v>
+        <v>0.953860103847155</v>
       </c>
       <c r="G102" t="n">
-        <v>0.9990676217198062</v>
+        <v>0.9990694217782989</v>
       </c>
       <c r="H102" t="n">
-        <v>0.8377551868123264</v>
+        <v>0.8359285310425714</v>
       </c>
       <c r="I102" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
       <c r="J102" t="n">
-        <v>1.0</v>
+        <v>10.0</v>
       </c>
     </row>
     <row r="103">
@@ -4685,28 +4673,28 @@
         <v>110</v>
       </c>
       <c r="C103" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D103" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="E103" t="s">
-        <v>321</v>
+        <v>277</v>
       </c>
       <c r="F103" t="n">
-        <v>0.9537769333602988</v>
+        <v>0.9545408448522748</v>
       </c>
       <c r="G103" t="n">
-        <v>0.9990676217198062</v>
+        <v>0.9990694217782989</v>
       </c>
       <c r="H103" t="n">
-        <v>0.8377551868123264</v>
+        <v>0.8359285310425714</v>
       </c>
       <c r="I103" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="J103" t="n">
-        <v>10.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="104">
@@ -4717,28 +4705,28 @@
         <v>111</v>
       </c>
       <c r="C104" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="D104" t="s">
         <v>251</v>
       </c>
       <c r="E104" t="s">
-        <v>278</v>
+        <v>319</v>
       </c>
       <c r="F104" t="n">
-        <v>0.9545088638857622</v>
+        <v>0.9552219824391304</v>
       </c>
       <c r="G104" t="n">
-        <v>0.9990676217198062</v>
+        <v>0.9990694217782989</v>
       </c>
       <c r="H104" t="n">
-        <v>0.8377551868123264</v>
+        <v>0.8359285310425714</v>
       </c>
       <c r="I104" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
       <c r="J104" t="n">
-        <v>1.0</v>
+        <v>18.0</v>
       </c>
     </row>
     <row r="105">
@@ -4749,28 +4737,28 @@
         <v>112</v>
       </c>
       <c r="C105" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="D105" t="s">
-        <v>253</v>
+        <v>240</v>
       </c>
       <c r="E105" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="F105" t="n">
-        <v>0.9551150538418962</v>
+        <v>0.956625204093452</v>
       </c>
       <c r="G105" t="n">
-        <v>0.9990676217198062</v>
+        <v>0.9990694217782989</v>
       </c>
       <c r="H105" t="n">
-        <v>0.8377551868123264</v>
+        <v>0.8359285310425714</v>
       </c>
       <c r="I105" t="s">
-        <v>436</v>
+        <v>433</v>
       </c>
       <c r="J105" t="n">
-        <v>18.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="106">
@@ -4781,28 +4769,28 @@
         <v>113</v>
       </c>
       <c r="C106" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D106" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="E106" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="F106" t="n">
-        <v>0.9565717572333159</v>
+        <v>0.9584630329147508</v>
       </c>
       <c r="G106" t="n">
-        <v>0.9990676217198062</v>
+        <v>0.9990694217782989</v>
       </c>
       <c r="H106" t="n">
-        <v>0.8377551868123264</v>
+        <v>0.8359285310425714</v>
       </c>
       <c r="I106" t="s">
-        <v>437</v>
+        <v>434</v>
       </c>
       <c r="J106" t="n">
-        <v>4.0</v>
+        <v>5.0</v>
       </c>
     </row>
     <row r="107">
@@ -4813,28 +4801,28 @@
         <v>114</v>
       </c>
       <c r="C107" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="D107" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="E107" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="F107" t="n">
-        <v>0.958406222030808</v>
+        <v>0.9648945695057893</v>
       </c>
       <c r="G107" t="n">
-        <v>0.9990676217198062</v>
+        <v>0.9990694217782989</v>
       </c>
       <c r="H107" t="n">
-        <v>0.8377551868123264</v>
+        <v>0.8359285310425714</v>
       </c>
       <c r="I107" t="s">
-        <v>438</v>
+        <v>435</v>
       </c>
       <c r="J107" t="n">
-        <v>5.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="108">
@@ -4845,28 +4833,28 @@
         <v>115</v>
       </c>
       <c r="C108" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="D108" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="E108" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="F108" t="n">
-        <v>0.9648538964833631</v>
+        <v>0.9659530259654661</v>
       </c>
       <c r="G108" t="n">
-        <v>0.9990676217198062</v>
+        <v>0.9990694217782989</v>
       </c>
       <c r="H108" t="n">
-        <v>0.8377551868123264</v>
+        <v>0.8359285310425714</v>
       </c>
       <c r="I108" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
       <c r="J108" t="n">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="109">
@@ -4877,28 +4865,28 @@
         <v>116</v>
       </c>
       <c r="C109" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="D109" t="s">
-        <v>251</v>
+        <v>246</v>
       </c>
       <c r="E109" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="F109" t="n">
-        <v>0.9659268206077279</v>
+        <v>0.9733158625374967</v>
       </c>
       <c r="G109" t="n">
-        <v>0.9990676217198062</v>
+        <v>0.9990694217782989</v>
       </c>
       <c r="H109" t="n">
-        <v>0.8377551868123264</v>
+        <v>0.8359285310425714</v>
       </c>
       <c r="I109" t="s">
-        <v>440</v>
+        <v>437</v>
       </c>
       <c r="J109" t="n">
-        <v>1.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="110">
@@ -4909,28 +4897,28 @@
         <v>117</v>
       </c>
       <c r="C110" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="D110" t="s">
-        <v>248</v>
+        <v>240</v>
       </c>
       <c r="E110" t="s">
-        <v>327</v>
+        <v>310</v>
       </c>
       <c r="F110" t="n">
-        <v>0.9732827829013126</v>
+        <v>0.9796962674175809</v>
       </c>
       <c r="G110" t="n">
-        <v>0.9990676217198062</v>
+        <v>0.9990694217782989</v>
       </c>
       <c r="H110" t="n">
-        <v>0.8377551868123264</v>
+        <v>0.8359285310425714</v>
       </c>
       <c r="I110" t="s">
-        <v>441</v>
+        <v>438</v>
       </c>
       <c r="J110" t="n">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="111">
@@ -4941,25 +4929,25 @@
         <v>118</v>
       </c>
       <c r="C111" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D111" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="E111" t="s">
-        <v>315</v>
+        <v>310</v>
       </c>
       <c r="F111" t="n">
-        <v>0.9774507717545541</v>
+        <v>0.9796962674175809</v>
       </c>
       <c r="G111" t="n">
-        <v>0.9990676217198062</v>
+        <v>0.9990694217782989</v>
       </c>
       <c r="H111" t="n">
-        <v>0.8377551868123264</v>
+        <v>0.8359285310425714</v>
       </c>
       <c r="I111" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
       <c r="J111" t="n">
         <v>4.0</v>
@@ -4973,28 +4961,28 @@
         <v>119</v>
       </c>
       <c r="C112" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="D112" t="s">
-        <v>242</v>
+        <v>247</v>
       </c>
       <c r="E112" t="s">
-        <v>312</v>
+        <v>325</v>
       </c>
       <c r="F112" t="n">
-        <v>0.9796663167847743</v>
+        <v>0.9829466811130638</v>
       </c>
       <c r="G112" t="n">
-        <v>0.9990676217198062</v>
+        <v>0.9990694217782989</v>
       </c>
       <c r="H112" t="n">
-        <v>0.8377551868123264</v>
+        <v>0.8359285310425714</v>
       </c>
       <c r="I112" t="s">
-        <v>443</v>
+        <v>440</v>
       </c>
       <c r="J112" t="n">
-        <v>4.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="113">
@@ -5005,28 +4993,28 @@
         <v>120</v>
       </c>
       <c r="C113" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="D113" t="s">
         <v>249</v>
       </c>
       <c r="E113" t="s">
-        <v>328</v>
+        <v>309</v>
       </c>
       <c r="F113" t="n">
-        <v>0.982926545433851</v>
+        <v>0.9846452729022017</v>
       </c>
       <c r="G113" t="n">
-        <v>0.9990676217198062</v>
+        <v>0.9990694217782989</v>
       </c>
       <c r="H113" t="n">
-        <v>0.8377551868123264</v>
+        <v>0.8359285310425714</v>
       </c>
       <c r="I113" t="s">
-        <v>444</v>
+        <v>441</v>
       </c>
       <c r="J113" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="114">
@@ -5037,28 +5025,28 @@
         <v>121</v>
       </c>
       <c r="C114" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D114" t="s">
-        <v>251</v>
+        <v>240</v>
       </c>
       <c r="E114" t="s">
-        <v>311</v>
+        <v>326</v>
       </c>
       <c r="F114" t="n">
-        <v>0.9846306505014422</v>
+        <v>0.9903264875629749</v>
       </c>
       <c r="G114" t="n">
-        <v>0.9990676217198062</v>
+        <v>0.9990694217782989</v>
       </c>
       <c r="H114" t="n">
-        <v>0.8377551868123264</v>
+        <v>0.8359285310425714</v>
       </c>
       <c r="I114" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
       <c r="J114" t="n">
-        <v>1.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="115">
@@ -5069,28 +5057,28 @@
         <v>122</v>
       </c>
       <c r="C115" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="D115" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="E115" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="F115" t="n">
-        <v>0.9903099870784344</v>
+        <v>0.9917203784763378</v>
       </c>
       <c r="G115" t="n">
-        <v>0.9990676217198062</v>
+        <v>0.9990694217782989</v>
       </c>
       <c r="H115" t="n">
-        <v>0.8377551868123264</v>
+        <v>0.8359285310425714</v>
       </c>
       <c r="I115" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
       <c r="J115" t="n">
-        <v>4.0</v>
+        <v>5.0</v>
       </c>
     </row>
     <row r="116">
@@ -5101,28 +5089,28 @@
         <v>123</v>
       </c>
       <c r="C116" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="D116" t="s">
-        <v>243</v>
+        <v>237</v>
       </c>
       <c r="E116" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="F116" t="n">
-        <v>0.9917045786494629</v>
+        <v>0.9939168073984279</v>
       </c>
       <c r="G116" t="n">
-        <v>0.9990676217198062</v>
+        <v>0.9990694217782989</v>
       </c>
       <c r="H116" t="n">
-        <v>0.8377551868123264</v>
+        <v>0.8359285310425714</v>
       </c>
       <c r="I116" t="s">
-        <v>447</v>
+        <v>444</v>
       </c>
       <c r="J116" t="n">
-        <v>5.0</v>
+        <v>8.0</v>
       </c>
     </row>
     <row r="117">
@@ -5133,28 +5121,28 @@
         <v>124</v>
       </c>
       <c r="C117" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="D117" t="s">
-        <v>239</v>
+        <v>249</v>
       </c>
       <c r="E117" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="F117" t="n">
-        <v>0.9939021165775056</v>
+        <v>0.9944432366900552</v>
       </c>
       <c r="G117" t="n">
-        <v>0.9990676217198062</v>
+        <v>0.9990694217782989</v>
       </c>
       <c r="H117" t="n">
-        <v>0.8377551868123264</v>
+        <v>0.8359285310425714</v>
       </c>
       <c r="I117" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
       <c r="J117" t="n">
-        <v>8.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="118">
@@ -5165,59 +5153,27 @@
         <v>125</v>
       </c>
       <c r="C118" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D118" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="E118" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="F118" t="n">
-        <v>0.9944366456846747</v>
+        <v>0.9990694217782989</v>
       </c>
       <c r="G118" t="n">
-        <v>0.9990676217198062</v>
+        <v>0.9990694217782989</v>
       </c>
       <c r="H118" t="n">
-        <v>0.8377551868123264</v>
+        <v>0.8359285310425714</v>
       </c>
       <c r="I118" t="s">
-        <v>449</v>
+        <v>446</v>
       </c>
       <c r="J118" t="n">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="119">
-      <c r="A119" t="s">
-        <v>126</v>
-      </c>
-      <c r="B119" t="s">
-        <v>126</v>
-      </c>
-      <c r="C119" t="s">
-        <v>235</v>
-      </c>
-      <c r="D119" t="s">
-        <v>249</v>
-      </c>
-      <c r="E119" t="s">
-        <v>333</v>
-      </c>
-      <c r="F119" t="n">
-        <v>0.9990676217198062</v>
-      </c>
-      <c r="G119" t="n">
-        <v>0.9990676217198062</v>
-      </c>
-      <c r="H119" t="n">
-        <v>0.8377551868123264</v>
-      </c>
-      <c r="I119" t="s">
-        <v>450</v>
-      </c>
-      <c r="J119" t="n">
         <v>2.0</v>
       </c>
     </row>
